--- a/reports/suspended_licenses.xlsx
+++ b/reports/suspended_licenses.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,31 +460,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dumitrescu</t>
+          <t>Popescu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ana</t>
+          <t>Alexandru</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C1E</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>22/05/2015</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>19/05/2025</t>
+          <t>05/08/2024</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -493,31 +493,31 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tudor</t>
+          <t>Mihai</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Bogdan</t>
+          <t>Mihai</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CE</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>03/10/2023</t>
+          <t>04/07/2016</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>30/09/2033</t>
+          <t>02/07/2026</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -526,31 +526,31 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Neagu</t>
+          <t>Radu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ioana</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>02/03/2014</t>
+          <t>02/09/2012</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>28/02/2024</t>
+          <t>31/08/2022</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -559,11 +559,11 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Stan</t>
+          <t>Stoica</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,17 +573,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>D1E</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22/10/2015</t>
+          <t>15/03/2015</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>19/10/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -592,31 +592,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dumitrescu</t>
+          <t>Petrescu</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Alexandru</t>
+          <t>Elena</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>CE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30/07/2019</t>
+          <t>12/08/2014</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>27/07/2029</t>
+          <t>09/08/2024</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -629,27 +629,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Popa</t>
+          <t>Radu</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Laura</t>
+          <t>Mihai</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>04/07/2023</t>
+          <t>26/08/2023</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>01/07/2033</t>
+          <t>23/08/2033</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -658,31 +658,31 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Popa</t>
+          <t>Petrescu</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cristina</t>
+          <t>Ioana</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12/09/2019</t>
+          <t>07/01/2016</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09/09/2029</t>
+          <t>04/01/2026</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -691,11 +691,11 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tudor</t>
+          <t>Ungureanu</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -705,17 +705,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27/08/2015</t>
+          <t>30/10/2016</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>24/08/2025</t>
+          <t>28/10/2026</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -724,7 +724,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -733,7 +733,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Alexandru</t>
+          <t>Elena</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -743,12 +743,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>25/10/2020</t>
+          <t>10/12/2011</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>23/10/2030</t>
+          <t>07/12/2021</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -757,31 +757,31 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Stoica</t>
+          <t>Popa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>30/12/2021</t>
+          <t>30/03/2016</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>28/12/2031</t>
+          <t>28/03/2026</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -790,31 +790,31 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Radu</t>
+          <t>Stan</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Andrei</t>
+          <t>Cristina</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09/07/2021</t>
+          <t>03/02/2014</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>07/07/2031</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -823,16 +823,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ionescu</t>
+          <t>Dumitrescu</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Laura</t>
+          <t>Cristina</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -842,12 +842,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>26/01/2016</t>
+          <t>02/05/2023</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>23/01/2026</t>
+          <t>29/04/2033</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -856,31 +856,31 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Popescu</t>
+          <t>Neagu</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Andrei</t>
+          <t>Raluca</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>C1E</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>07/05/2022</t>
+          <t>19/12/2014</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>04/05/2032</t>
+          <t>16/12/2024</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -889,31 +889,31 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Vasile</t>
+          <t>Petrescu</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ion</t>
+          <t>Adrian</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13/03/2012</t>
+          <t>26/08/2021</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>11/03/2022</t>
+          <t>24/08/2031</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -922,11 +922,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Stoica</t>
+          <t>Mihai</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -936,17 +936,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>30/09/2023</t>
+          <t>25/12/2012</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>27/09/2033</t>
+          <t>23/12/2022</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -955,31 +955,31 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dumitrescu</t>
+          <t>Neagu</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Adrian</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CE</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>13/04/2015</t>
+          <t>31/08/2020</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
+          <t>29/08/2030</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -988,31 +988,31 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dumitrescu</t>
+          <t>Popa</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Alexandru</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>20/08/2022</t>
+          <t>11/12/2018</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>17/08/2032</t>
+          <t>08/12/2028</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1021,31 +1021,31 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ionescu</t>
+          <t>Tudor</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Alexandru</t>
+          <t>Mihai</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>D1E</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12/10/2015</t>
+          <t>15/07/2012</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09/10/2025</t>
+          <t>13/07/2022</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1054,31 +1054,31 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Petrescu</t>
+          <t>Stoica</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Alexandru</t>
+          <t>Bogdan</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>C1E</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12/04/2018</t>
+          <t>04/08/2019</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09/04/2028</t>
+          <t>01/08/2029</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1087,31 +1087,31 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tudor</t>
+          <t>Neagu</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Raluca</t>
+          <t>Cristina</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>D1E</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>29/08/2015</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>26/08/2025</t>
+          <t>27/02/2034</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1120,31 +1120,31 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Radu</t>
+          <t>Vasile</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ion</t>
+          <t>Raluca</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>D1E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>03/06/2023</t>
+          <t>25/05/2019</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>31/05/2033</t>
+          <t>22/05/2029</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1153,11 +1153,11 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Neagu</t>
+          <t>Ungureanu</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>03/01/2012</t>
+          <t>26/05/2019</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>23/05/2029</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1186,31 +1186,31 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Petrescu</t>
+          <t>Dumitrescu</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Bogdan</t>
+          <t>Florin</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>C1E</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>19/02/2024</t>
+          <t>07/05/2020</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>16/02/2034</t>
+          <t>05/05/2030</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1219,31 +1219,31 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Popescu</t>
+          <t>Stan</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Raluca</t>
+          <t>Ion</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>01/07/2011</t>
+          <t>03/09/2015</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>28/06/2021</t>
+          <t>31/08/2025</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1252,11 +1252,11 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ionescu</t>
+          <t>Popa</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1266,17 +1266,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18/01/2022</t>
+          <t>19/02/2014</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>16/01/2032</t>
+          <t>17/02/2024</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1285,31 +1285,31 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Popescu</t>
+          <t>Popa</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Andrei</t>
+          <t>Alexandru</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>15/07/2015</t>
+          <t>08/11/2014</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>05/11/2024</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1318,31 +1318,31 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>Tudor</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>Mihai</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Laura</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>D1E</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>05/09/2011</t>
+          <t>12/01/2022</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>02/09/2021</t>
+          <t>10/01/2032</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1351,16 +1351,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dumitrescu</t>
+          <t>Mihai</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Adrian</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1370,12 +1370,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>02/07/2023</t>
+          <t>17/06/2019</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>29/06/2033</t>
+          <t>14/06/2029</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1384,31 +1384,31 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ungureanu</t>
+          <t>Ionescu</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mihai</t>
+          <t>Elena</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>D1E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19/12/2017</t>
+          <t>30/12/2014</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>17/12/2027</t>
+          <t>27/12/2024</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1417,31 +1417,31 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ionescu</t>
+          <t>Popa</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Elena</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CE</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>15/05/2021</t>
+          <t>12/10/2018</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>13/05/2031</t>
+          <t>09/10/2028</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1450,31 +1450,31 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Popa</t>
+          <t>Radu</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cristina</t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10/07/2018</t>
+          <t>22/02/2023</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>07/07/2028</t>
+          <t>19/02/2033</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1483,7 +1483,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1492,22 +1492,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Raluca</t>
+          <t>Ana</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>C1E</t>
+          <t>CE</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>29/10/2015</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>26/10/2025</t>
+          <t>06/10/2023</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1516,31 +1516,31 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Gheorghe</t>
+          <t>Dumitrescu</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mihai</t>
+          <t>Andrei</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>18/12/2013</t>
+          <t>14/04/2017</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>16/12/2023</t>
+          <t>12/04/2027</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1549,16 +1549,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Dumitrescu</t>
+          <t>Marin</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cristina</t>
+          <t>Raluca</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1568,12 +1568,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13/03/2020</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>11/03/2030</t>
+          <t>30/01/2031</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1582,31 +1582,31 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Stoica</t>
+          <t>Gheorghe</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cristina</t>
+          <t>Adrian</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>06/01/2014</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>04/01/2024</t>
+          <t>21/01/2027</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1615,7 +1615,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1624,22 +1624,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Laura</t>
+          <t>Florin</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12/03/2016</t>
+          <t>21/09/2023</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>10/03/2026</t>
+          <t>18/09/2033</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1648,31 +1648,31 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Radu</t>
+          <t>Ungureanu</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Cristina</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D1E</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>20/08/2022</t>
+          <t>09/11/2016</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>17/08/2032</t>
+          <t>07/11/2026</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1681,31 +1681,31 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Stan</t>
+          <t>Neagu</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Laura</t>
+          <t>Ana</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C1E</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>23/09/2023</t>
+          <t>19/06/2021</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>20/09/2033</t>
+          <t>17/06/2031</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -1714,31 +1714,31 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Popescu</t>
+          <t>Mihai</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Bogdan</t>
+          <t>Elena</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>15/05/2023</t>
+          <t>18/11/2013</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>12/05/2033</t>
+          <t>16/11/2023</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -1747,31 +1747,31 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ionescu</t>
+          <t>Stan</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Ion</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CE</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>09/07/2021</t>
+          <t>19/03/2021</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>07/07/2031</t>
+          <t>17/03/2031</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -1780,11 +1780,11 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ungureanu</t>
+          <t>Vasile</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1794,17 +1794,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>C1E</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>23/01/2014</t>
+          <t>14/04/2013</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>21/01/2024</t>
+          <t>12/04/2023</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -1813,31 +1813,31 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Marin</t>
+          <t>Tudor</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Bogdan</t>
+          <t>Ana</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>01/05/2019</t>
+          <t>16/01/2024</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>28/04/2029</t>
+          <t>13/01/2034</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -1846,31 +1846,31 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Stoica</t>
+          <t>Radu</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Bogdan</t>
+          <t>Ana</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>06/07/2014</t>
+          <t>15/02/2017</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>03/07/2024</t>
+          <t>13/02/2027</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -1879,31 +1879,31 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Popescu</t>
+          <t>Stoica</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ioana</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>17/02/2024</t>
+          <t>09/10/2019</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>14/02/2034</t>
+          <t>06/10/2029</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -1912,31 +1912,31 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mihai</t>
+          <t>Popa</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Bogdan</t>
+          <t>Alexandru</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>C1E</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>12/01/2017</t>
+          <t>07/10/2023</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>10/01/2027</t>
+          <t>04/10/2033</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -1945,31 +1945,31 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tudor</t>
+          <t>Popa</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ion</t>
+          <t>Elena</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>C1E</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>20/07/2014</t>
+          <t>25/06/2017</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>17/07/2024</t>
+          <t>23/06/2027</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -1978,31 +1978,31 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Gheorghe</t>
+          <t>Popescu</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Raluca</t>
+          <t>Florin</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>28/12/2023</t>
+          <t>14/10/2012</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>25/12/2033</t>
+          <t>12/10/2022</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2011,31 +2011,31 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Dumitrescu</t>
+          <t>Neagu</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Bogdan</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>D1E</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>30/10/2012</t>
+          <t>12/03/2023</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>28/10/2022</t>
+          <t>09/03/2033</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2044,31 +2044,31 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Stoica</t>
+          <t>Dumitrescu</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Mihai</t>
+          <t>Alexandru</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>19/11/2013</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>21/03/2021</t>
+          <t>17/11/2023</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2077,31 +2077,31 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Dumitrescu</t>
+          <t>Ionescu</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ana</t>
+          <t>Adrian</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>25/08/2018</t>
+          <t>01/08/2014</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>22/08/2028</t>
+          <t>29/07/2024</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2110,31 +2110,31 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Neagu</t>
+          <t>Gheorghe</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Adrian</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>18/01/2024</t>
+          <t>22/07/2023</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>15/01/2034</t>
+          <t>19/07/2033</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2143,31 +2143,31 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Vasile</t>
+          <t>Popescu</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>22/06/2023</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>15/12/2025</t>
+          <t>19/06/2033</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -2176,16 +2176,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Radu</t>
+          <t>Tudor</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Ana</t>
+          <t>Bogdan</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2195,12 +2195,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>13/12/2012</t>
+          <t>06/04/2017</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>11/12/2022</t>
+          <t>04/04/2027</t>
         </is>
       </c>
       <c r="G54" t="b">
@@ -2209,31 +2209,31 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Gheorghe</t>
+          <t>Vasile</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Florin</t>
+          <t>Ioana</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>13/08/2012</t>
+          <t>18/08/2012</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>11/08/2022</t>
+          <t>16/08/2022</t>
         </is>
       </c>
       <c r="G55" t="b">
@@ -2242,16 +2242,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Vasile</t>
+          <t>Mihai</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Ion</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2261,12 +2261,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>15/09/2014</t>
+          <t>31/08/2016</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>12/09/2024</t>
+          <t>29/08/2026</t>
         </is>
       </c>
       <c r="G56" t="b">
@@ -2275,31 +2275,31 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Marin</t>
+          <t>Ungureanu</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Andrei</t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CE</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>22/10/2021</t>
+          <t>25/04/2021</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>20/10/2031</t>
+          <t>23/04/2031</t>
         </is>
       </c>
       <c r="G57" t="b">
@@ -2308,31 +2308,31 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Marin</t>
+          <t>Mihai</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Florin</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>14/04/2020</t>
+          <t>26/08/2018</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>12/04/2030</t>
+          <t>23/08/2028</t>
         </is>
       </c>
       <c r="G58" t="b">
@@ -2341,31 +2341,31 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Radu</t>
+          <t>Ionescu</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Florin</t>
+          <t>Ioana</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>C1E</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>17/01/2020</t>
+          <t>31/03/2022</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>14/01/2030</t>
+          <t>28/03/2032</t>
         </is>
       </c>
       <c r="G59" t="b">
@@ -2374,7 +2374,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2383,22 +2383,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>28/09/2017</t>
+          <t>08/11/2022</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>26/09/2027</t>
+          <t>05/11/2032</t>
         </is>
       </c>
       <c r="G60" t="b">
@@ -2407,31 +2407,31 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Neagu</t>
+          <t>Mihai</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Florin</t>
+          <t>Adrian</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>02/03/2012</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>29/06/2022</t>
+          <t>28/02/2022</t>
         </is>
       </c>
       <c r="G61" t="b">
@@ -2440,7 +2440,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2449,22 +2449,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Mihai</t>
+          <t>Bogdan</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>24/12/2015</t>
+          <t>03/02/2016</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>21/12/2025</t>
+          <t>31/01/2026</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -2473,31 +2473,31 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Tudor</t>
+          <t>Ungureanu</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Mihai</t>
+          <t>Florin</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>C1E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11/07/2013</t>
+          <t>03/04/2019</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>09/07/2023</t>
+          <t>31/03/2029</t>
         </is>
       </c>
       <c r="G63" t="b">
@@ -2506,661 +2506,34 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Stoica</t>
+          <t>Popa</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Raluca</t>
+          <t>Ion</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>17/12/2017</t>
+          <t>05/02/2016</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>15/12/2027</t>
+          <t>02/02/2026</t>
         </is>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>113</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Popescu</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Florin</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>D1E</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>26/12/2015</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>23/12/2025</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>114</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Marin</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>07/08/2013</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>05/08/2023</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>117</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Radu</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Alexandru</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>20/12/2022</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>17/12/2032</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>121</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Dumitrescu</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Andrei</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>14/09/2014</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>11/09/2024</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>122</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Stoica</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Bogdan</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>31/01/2012</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>28/01/2022</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>123</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Popescu</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Florin</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>13/06/2011</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>10/06/2021</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>127</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Vasile</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Elena</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>03/10/2018</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>30/09/2028</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>130</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Stan</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Ioana</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>11/12/2015</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>08/12/2025</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>132</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Petrescu</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Elena</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>03/08/2013</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>133</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Stan</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Cristina</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>D1E</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>08/12/2022</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>05/12/2032</t>
-        </is>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>134</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Neagu</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>22/01/2013</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>20/01/2023</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>135</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Ungureanu</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>25/04/2017</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>23/04/2027</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>138</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Petrescu</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Elena</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>BE</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>31/05/2014</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>28/05/2024</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>139</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Dumitrescu</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Cristina</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>28/11/2017</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>26/11/2027</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>140</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Tudor</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Raluca</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>11/10/2021</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>09/10/2031</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>141</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Mihai</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>BE</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>06/04/2012</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>04/04/2022</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>142</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Popa</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Cristina</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>23/09/2019</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>20/09/2029</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>145</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Mihai</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Cristina</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>02/07/2018</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>29/06/2028</t>
-        </is>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>146</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Mihai</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>25/10/2021</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>23/10/2031</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
         <v>1</v>
       </c>
     </row>
